--- a/office/LAB12.xlsx
+++ b/office/LAB12.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jpr\django\pc-notebook\office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hornir\Documents\GitHub\pc-notebook\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72D758D7-1FC6-45BF-A72E-FE98E8411AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{76BC1BE9-71A8-4055-89AA-FAF5BEF2F22E}"/>
+    <workbookView xWindow="2688" yWindow="-120" windowWidth="37716" windowHeight="21840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="X">Лист1!$A$1</definedName>
     <definedName name="Y">Лист1!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,19 +462,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CDFA6E-7132-4ECE-B133-2713592E1420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>45</v>
       </c>
@@ -504,7 +503,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C2">
         <f>$C$1+D1</f>
         <v>145</v>
@@ -534,13 +533,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>(7*X)/ ((Y - 5)*3)</f>
         <v>1.5217391304347827</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>0</v>
       </c>
@@ -548,21 +547,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D10" t="str">
-        <f>CONCATENATE(F8,F12,G8,F12,G9,F12,G10,F12,G11)&amp;F12&amp;G12</f>
-        <v>Собака ест орехи с хрустом зубов</v>
+        <f>CONCATENATE(F8,G8,F12,G9,F12,G10,F12,G11)&amp;" "&amp;G12</f>
+        <v>Собакаест орехи с хрустом зубов</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>SUM(Diag1, diag2)</f>
         <v>116851</v>
@@ -575,7 +574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>6</v>
       </c>
@@ -583,7 +582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -600,7 +599,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2124</v>
       </c>
@@ -617,7 +616,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2125</v>
       </c>
@@ -634,7 +633,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2148</v>
       </c>
@@ -651,7 +650,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>21689</v>
       </c>
